--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26205.39829513007</v>
+        <v>18392.42725732459</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33970018.24655607</v>
+        <v>33970018.24655608</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3559133.830451912</v>
+        <v>3559133.830451911</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.6306220853994</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42.01563427930009</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21.7134860258129</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>113.0015373944718</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>124.3288136085598</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>99.3864312052509</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>93.47781416967008</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>212.0853544741093</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>84.19102995066359</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>214.230991478422</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>67.81305593795554</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>43.97954181326757</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>321.8925632907128</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2285968147718</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>43.97954181326757</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>229.8234629143934</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>168.3257202729433</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>180.447977282574</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2478,22 +2478,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>81.04499162466412</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.48222241505165</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>213.7416271160865</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>204.0461120219742</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>188.6322732405241</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>32.01788871693722</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2794,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>109.5540470185019</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.490964452987463</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>106.4438755113824</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>65.45709821928062</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>336.6911209764717</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.15662344077715</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>89.16543387971674</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>39.28601389839164</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>124.9554984777218</v>
+        <v>226.7103776500996</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>169.0371054365768</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>3.008008304820971</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>88.69475966745551</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>11.45461388085811</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.197368637146</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>361.4649050157285</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>49.60664915306982</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>200.1028142583231</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>368.5724630577456</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>49.60664915306982</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,13 +4143,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>137.6384805602085</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1748.628930102402</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.486457285825</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D11" t="n">
-        <v>874.5766724602698</v>
+        <v>1186.738258541915</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027048</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="Y11" t="n">
-        <v>1941.185114027048</v>
+        <v>2060.790516184047</v>
       </c>
     </row>
     <row r="12">
@@ -5102,22 +5102,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,10 +5126,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.4666516418563</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C13" t="n">
-        <v>771.9049401250812</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D13" t="n">
-        <v>606.0269473266039</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>831.5726843696448</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1859.510847790255</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1572.555339660685</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1300.528935246977</v>
       </c>
       <c r="X13" t="n">
-        <v>1136.285270360843</v>
+        <v>1055.137180580389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.285270360843</v>
+        <v>1055.137180580389</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1849.01926465316</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="C14" t="n">
-        <v>1410.876791836584</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D14" t="n">
-        <v>974.9670070110283</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E14" t="n">
-        <v>974.9670070110283</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>547.0995774202361</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>147.5968860997132</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X14" t="n">
-        <v>1849.01926465316</v>
+        <v>1470.343171017674</v>
       </c>
       <c r="Y14" t="n">
-        <v>1849.01926465316</v>
+        <v>1470.343171017674</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5399,10 +5399,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>326.7831174369941</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>550.4276429928785</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2121.479004437153</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1843.092372485896</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.136864356327</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.110459942618</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X16" t="n">
-        <v>1284.110459942618</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>918.9131090089197</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485.3490243655314</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895474</v>
+        <v>1663.114413152674</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5518,10 +5518,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5548,19 +5548,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2143.932636560442</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V17" t="n">
-        <v>2143.932636560442</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W17" t="n">
-        <v>1739.077181971475</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.934718550786</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y17" t="n">
-        <v>911.6485948504392</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>280.4457682374015</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,19 +5679,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1901.869573656742</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5703,22 +5703,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>2315.903797838376</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1578.568163960874</v>
+        <v>810.4930276894837</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.425691144298</v>
+        <v>372.350554872907</v>
       </c>
       <c r="D20" t="n">
-        <v>704.5159063187421</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E20" t="n">
-        <v>704.5159063187421</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F20" t="n">
-        <v>704.5159063187421</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>305.0132149982192</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001348</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.05327704358</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381563</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X20" t="n">
-        <v>1578.568163960874</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.568163960874</v>
+        <v>1236.792598174392</v>
       </c>
     </row>
     <row r="21">
@@ -5810,22 +5810,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>629.3286074169882</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5940,22 +5940,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>2315.903797838376</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.53013062851</v>
+        <v>1048.566896821867</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.110459942618</v>
+        <v>821.1472261359754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C23" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
@@ -5989,13 +5989,13 @@
         <v>118.4065018001354</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K23" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1738.639935903077</v>
+        <v>1678.99328457948</v>
       </c>
       <c r="W23" t="n">
-        <v>1333.784481314111</v>
+        <v>1274.137829990514</v>
       </c>
       <c r="X23" t="n">
-        <v>1151.513797190299</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y23" t="n">
-        <v>743.2276734899522</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>992.2890823372272</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C25" t="n">
-        <v>819.7273708204522</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D25" t="n">
-        <v>653.8493780219749</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E25" t="n">
-        <v>484.0913742727121</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>307.3843202344683</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>142.6431398469867</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895474</v>
@@ -6147,25 +6147,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.9123158186961</v>
+        <v>289.492000983386</v>
       </c>
       <c r="L25" t="n">
-        <v>744.9929992049551</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M25" t="n">
-        <v>875.5973915434847</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N25" t="n">
-        <v>1445.355106505019</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O25" t="n">
-        <v>1982.790237078562</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6177,22 +6177,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2215.901038951972</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1928.945530822402</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W25" t="n">
-        <v>1656.919126408694</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>1411.527371742106</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y25" t="n">
-        <v>1184.107701056214</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1526.86868437219</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1088.726211555613</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>652.8164267300576</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>652.8164267300576</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>1526.86868437219</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W26" t="n">
-        <v>1526.86868437219</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X26" t="n">
-        <v>1526.86868437219</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="Y26" t="n">
-        <v>1526.86868437219</v>
+        <v>932.3314277761596</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>992.2890823372272</v>
+        <v>617.362733766226</v>
       </c>
       <c r="C28" t="n">
-        <v>819.7273708204522</v>
+        <v>444.801022249451</v>
       </c>
       <c r="D28" t="n">
-        <v>653.8493780219749</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E28" t="n">
-        <v>484.0913742727121</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F28" t="n">
-        <v>307.3843202344683</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G28" t="n">
-        <v>142.6431398469867</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H28" t="n">
         <v>110.3018381127067</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092378</v>
+        <v>688.1212571728195</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>2215.901038951972</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1928.945530822402</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1656.919126408694</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1411.527371742106</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1184.107701056214</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>750.7028478467491</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C29" t="n">
-        <v>750.7028478467491</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D29" t="n">
-        <v>750.7028478467491</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E29" t="n">
-        <v>316.9281030050443</v>
+        <v>585.7346346937893</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>157.867205102997</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
@@ -6463,7 +6463,7 @@
         <v>118.4065018001354</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K29" t="n">
         <v>512.3249274228017</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2352.760946687144</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1990.14399662097</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>1585.288542032004</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X29" t="n">
-        <v>1585.288542032004</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y29" t="n">
-        <v>1177.002418331657</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L31" t="n">
-        <v>326.7831174369941</v>
+        <v>688.1212571728195</v>
       </c>
       <c r="M31" t="n">
-        <v>910.964192855309</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N31" t="n">
-        <v>1480.721907816843</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O31" t="n">
-        <v>2018.157038390387</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6651,22 +6651,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1849.01926465316</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.876791836584</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D32" t="n">
-        <v>974.9670070110283</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>541.1922621693234</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>113.3248325785311</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J32" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1849.01926465316</v>
+        <v>1979.769166272159</v>
       </c>
       <c r="X32" t="n">
-        <v>1849.01926465316</v>
+        <v>1560.626702851469</v>
       </c>
       <c r="Y32" t="n">
-        <v>1849.01926465316</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>730.9745012407179</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>558.4127897239429</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D34" t="n">
-        <v>558.4127897239429</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E34" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F34" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
         <v>47.20655154895474</v>
@@ -6873,10 +6873,10 @@
         <v>1364.4344430832</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>86.88939387056246</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>47.20655154895474</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
         <v>47.20655154895474</v>
@@ -6934,7 +6934,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J35" t="n">
         <v>276.0532770435807</v>
@@ -6967,22 +6967,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1745.473006065473</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1340.617551476506</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>921.4750880558169</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y35" t="n">
-        <v>513.1889643554703</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.1113136517137</v>
+        <v>629.3286074169882</v>
       </c>
       <c r="C37" t="n">
-        <v>559.5496021349386</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D37" t="n">
-        <v>393.6716093364613</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871985</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7098,22 +7098,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L37" t="n">
-        <v>733.4227107706872</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2234.109902217715</v>
+        <v>2131.32719598299</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.723270266458</v>
+        <v>1852.940564031733</v>
       </c>
       <c r="V37" t="n">
-        <v>1668.767762136888</v>
+        <v>1565.985055902163</v>
       </c>
       <c r="W37" t="n">
-        <v>1396.74135772318</v>
+        <v>1293.958651488455</v>
       </c>
       <c r="X37" t="n">
-        <v>1151.349603056593</v>
+        <v>1048.566896821867</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.9299323707007</v>
+        <v>821.1472261359754</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,10 +7171,10 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228017</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V38" t="n">
-        <v>2149.116656716497</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W38" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X38" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.26120212753</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>541.3407388691952</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="E40" t="n">
-        <v>223.9136055871985</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7335,22 +7335,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545215</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728195</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7362,22 +7362,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W40" t="n">
-        <v>1396.74135772318</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>1900.718744241845</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y41" t="n">
-        <v>1492.432620541498</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.196554659879</v>
+        <v>757.7926570868869</v>
       </c>
       <c r="C43" t="n">
-        <v>856.6348431431041</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D43" t="n">
-        <v>690.7568503446269</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9988465953642</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,22 +7572,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L43" t="n">
-        <v>413.3628026016839</v>
+        <v>688.1212571728195</v>
       </c>
       <c r="M43" t="n">
-        <v>997.5438780199987</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1567.301592981533</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O43" t="n">
-        <v>2104.736723555076</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1650.558898871145</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.573267142144</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1154.573267142144</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1154.573267142144</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>1154.573267142144</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>757.7926570868869</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
         <v>242.6458987333908</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>688.1212571728195</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.17407462327</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584804</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1650.558898871145</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8850,19 +8850,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>454.7258774425568</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>93.97993254278282</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9327,22 +9327,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>249.9006690062661</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>104.3008170116725</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464597</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>192.4544649334021</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>68.57677528255681</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>80.0089772241131</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464595</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10746,10 +10746,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520596</v>
       </c>
       <c r="L37" t="n">
-        <v>45.75904403825029</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>458.158265737157</v>
@@ -10758,13 +10758,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520596</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>141.4680432173441</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>68.57677528255681</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>69.27619576520605</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>80.0089772241131</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475399</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.4059526946593</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>387.4213631139876</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,7 +23323,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>146.3469376859572</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>162.6012282372727</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>309.4322344798511</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>167.6379047362777</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.3469376859574</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>13.06011950492348</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>347.3596570266363</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>42.24899308527915</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>107.1269275599058</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>231.6232238184768</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>109.6581236865871</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>11.79573912675684</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>231.6232238184768</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>13.11437420552821</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>190.6650602925684</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>234.5030615039084</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>87.01543208710599</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>36.53839759942561</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>208.2949476639722</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>219.5426432729101</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.268159291273122</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.00273129754004</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>285.9536173888157</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>248.9890201107137</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24891,10 +24891,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>169.1588901203621</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>330.050566188037</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>64.11577906660534</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.7438090910201</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>75.05377899077578</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>394.4750341900193</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>114.8692533779057</v>
+        <v>13.11437420552784</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>189.9536751289349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>397.798891738256</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>75.52445320303701</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>257.8515264887133</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>275.8392061429127</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>53.4861337707539</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>140.2937833787274</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>42.83502286159853</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>32.23443698533146</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448413</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>140.2937833787274</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243301</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243301</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243301</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243302</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243304</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>410178.8914243302</v>
+        <v>410178.8914243303</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243302</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>410178.8914243303</v>
+        <v>410178.8914243302</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410178.8914243304</v>
+        <v>410178.8914243302</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="F2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="G2" t="n">
         <v>157297.5713008174</v>
       </c>
       <c r="H2" t="n">
-        <v>157297.5713008173</v>
+        <v>157297.5713008174</v>
       </c>
       <c r="I2" t="n">
         <v>157297.5713008174</v>
@@ -26349,7 +26349,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="N2" t="n">
-        <v>157297.5713008173</v>
+        <v>157297.5713008174</v>
       </c>
       <c r="O2" t="n">
         <v>157297.5713008174</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>17402.73254778061</v>
+      </c>
+      <c r="F4" t="n">
         <v>17402.73254778062</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>17402.73254778061</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17402.73254778062</v>
       </c>
       <c r="H4" t="n">
         <v>17402.73254778061</v>
@@ -26441,13 +26441,13 @@
         <v>17402.73254778061</v>
       </c>
       <c r="J4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="K4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="L4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="M4" t="n">
         <v>17402.73254778061</v>
@@ -26456,7 +26456,7 @@
         <v>17402.73254778061</v>
       </c>
       <c r="O4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="P4" t="n">
         <v>17402.73254778062</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-457291.4434472768</v>
+        <v>-457845.3238904988</v>
       </c>
       <c r="F6" t="n">
-        <v>93843.75754339894</v>
+        <v>93289.87710017698</v>
       </c>
       <c r="G6" t="n">
-        <v>93843.75754339898</v>
+        <v>93289.87710017704</v>
       </c>
       <c r="H6" t="n">
-        <v>93843.7575433989</v>
+        <v>93289.87710017704</v>
       </c>
       <c r="I6" t="n">
-        <v>93843.75754339894</v>
+        <v>93289.87710017702</v>
       </c>
       <c r="J6" t="n">
-        <v>93843.75754339897</v>
+        <v>93289.87710017702</v>
       </c>
       <c r="K6" t="n">
-        <v>93843.75754339903</v>
+        <v>93289.87710017705</v>
       </c>
       <c r="L6" t="n">
-        <v>93843.75754339898</v>
+        <v>93289.87710017702</v>
       </c>
       <c r="M6" t="n">
-        <v>-53207.01085917249</v>
+        <v>-53760.89130239435</v>
       </c>
       <c r="N6" t="n">
-        <v>93843.7575433989</v>
+        <v>93289.87710017702</v>
       </c>
       <c r="O6" t="n">
-        <v>93843.75754339898</v>
+        <v>93289.87710017702</v>
       </c>
       <c r="P6" t="n">
-        <v>93843.75754339896</v>
+        <v>93289.87710017705</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,7 +32469,7 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699081</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,10 +32545,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32557,7 +32557,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -32575,16 +32575,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H22" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,10 +32651,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33277,7 +33277,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917233</v>
@@ -33654,10 +33654,10 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699067</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,10 +34441,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -34453,7 +34453,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H46" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,10 +34547,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
@@ -34559,7 +34559,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35421,13 +35421,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>586.649506067334</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35725,7 +35725,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35734,13 +35734,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>225.9035611675601</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -35904,7 +35904,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>381.8242976310434</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>206.087742443676</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,16 +36357,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116994</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,10 +36533,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>294.2413903654056</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36597,13 +36597,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409512</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>197.3635548824452</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36773,7 +36773,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36834,7 +36834,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>211.9326058488904</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>258.5173486362901</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37071,13 +37071,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37229,7 +37229,7 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572666</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447062</v>
@@ -37241,13 +37241,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512694</v>
+        <v>296.1475206512698</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785926</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37466,10 +37466,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L37" t="n">
-        <v>170.881065874915</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619342</v>
@@ -37478,13 +37478,13 @@
         <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,7 +37545,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37703,25 +37703,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572665</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>260.4234789221539</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37782,13 +37782,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>197.3635548824452</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>171.0631211972095</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38019,13 +38019,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>211.9326058488904</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
